--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H2">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I2">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J2">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>1.138249444587889</v>
+        <v>3.302110435598</v>
       </c>
       <c r="R2">
-        <v>10.244245001291</v>
+        <v>29.718993920382</v>
       </c>
       <c r="S2">
-        <v>0.001221206892692021</v>
+        <v>0.001613166230515118</v>
       </c>
       <c r="T2">
-        <v>0.001221206892692021</v>
+        <v>0.001613166230515117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H3">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I3">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J3">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
-        <v>2.352204644916778</v>
+        <v>5.679070180313</v>
       </c>
       <c r="R3">
-        <v>21.169841804251</v>
+        <v>51.111631622817</v>
       </c>
       <c r="S3">
-        <v>0.002523637098223733</v>
+        <v>0.002774372454913749</v>
       </c>
       <c r="T3">
-        <v>0.002523637098223734</v>
+        <v>0.002774372454913749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H4">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I4">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J4">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>2.038600468992889</v>
+        <v>6.494350252803</v>
       </c>
       <c r="R4">
-        <v>18.347404220936</v>
+        <v>58.449152275227</v>
       </c>
       <c r="S4">
-        <v>0.002187176946157581</v>
+        <v>0.003172657826346098</v>
       </c>
       <c r="T4">
-        <v>0.002187176946157582</v>
+        <v>0.003172657826346098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H5">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I5">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J5">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>0.8879242102997776</v>
+        <v>1.393905361957</v>
       </c>
       <c r="R5">
-        <v>7.991317892697999</v>
+        <v>12.545148257613</v>
       </c>
       <c r="S5">
-        <v>0.0009526375531848385</v>
+        <v>0.0006809587693380011</v>
       </c>
       <c r="T5">
-        <v>0.0009526375531848386</v>
+        <v>0.000680958769338001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H6">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I6">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J6">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>7.291640705378554</v>
+        <v>22.107306665389</v>
       </c>
       <c r="R6">
-        <v>65.62476634840699</v>
+        <v>198.965759988501</v>
       </c>
       <c r="S6">
-        <v>0.007823067193910183</v>
+        <v>0.0107999902655554</v>
       </c>
       <c r="T6">
-        <v>0.007823067193910184</v>
+        <v>0.0107999902655554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H7">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I7">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J7">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>2.455952213993444</v>
+        <v>3.905586328246</v>
       </c>
       <c r="R7">
-        <v>22.103569925941</v>
+        <v>35.150276954214</v>
       </c>
       <c r="S7">
-        <v>0.002634945956803795</v>
+        <v>0.001907979789884589</v>
       </c>
       <c r="T7">
-        <v>0.002634945956803796</v>
+        <v>0.001907979789884588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H8">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I8">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J8">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N8">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q8">
-        <v>61.75950719021122</v>
+        <v>153.6838956579738</v>
       </c>
       <c r="R8">
-        <v>555.8355647119009</v>
+        <v>1383.155060921764</v>
       </c>
       <c r="S8">
-        <v>0.06626063929005924</v>
+        <v>0.0750785521819034</v>
       </c>
       <c r="T8">
-        <v>0.06626063929005925</v>
+        <v>0.0750785521819034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H9">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I9">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J9">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.527783</v>
       </c>
       <c r="O9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q9">
-        <v>127.6266818062735</v>
+        <v>264.3102482632372</v>
       </c>
       <c r="R9">
-        <v>1148.640136256461</v>
+        <v>2378.792234369134</v>
       </c>
       <c r="S9">
-        <v>0.1369283194068785</v>
+        <v>0.1291223825468775</v>
       </c>
       <c r="T9">
-        <v>0.1369283194068785</v>
+        <v>0.1291223825468775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H10">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I10">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J10">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N10">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q10">
-        <v>110.6110448121662</v>
+        <v>302.2542904254393</v>
       </c>
       <c r="R10">
-        <v>995.499403309496</v>
+        <v>2720.288613828954</v>
       </c>
       <c r="S10">
-        <v>0.1186725554532466</v>
+        <v>0.1476590271137699</v>
       </c>
       <c r="T10">
-        <v>0.1186725554532466</v>
+        <v>0.1476590271137699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H11">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I11">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J11">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N11">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O11">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P11">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q11">
-        <v>48.17727951558644</v>
+        <v>64.87390727296956</v>
       </c>
       <c r="R11">
-        <v>433.5955156402779</v>
+        <v>583.8651654567261</v>
       </c>
       <c r="S11">
-        <v>0.05168851704284001</v>
+        <v>0.03169257918394587</v>
       </c>
       <c r="T11">
-        <v>0.05168851704284001</v>
+        <v>0.03169257918394587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H12">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I12">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J12">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N12">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q12">
-        <v>395.6322040950419</v>
+        <v>1028.898662569167</v>
       </c>
       <c r="R12">
-        <v>3560.689836855377</v>
+        <v>9260.087963122503</v>
       </c>
       <c r="S12">
-        <v>0.4244665147073531</v>
+        <v>0.5026435697563726</v>
       </c>
       <c r="T12">
-        <v>0.4244665147073531</v>
+        <v>0.5026435697563726</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H13">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I13">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J13">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N13">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q13">
-        <v>133.2558510264501</v>
+        <v>181.7703355050476</v>
       </c>
       <c r="R13">
-        <v>1199.302659238051</v>
+        <v>1635.933019545428</v>
       </c>
       <c r="S13">
-        <v>0.142967751523007</v>
+        <v>0.08879950342818978</v>
       </c>
       <c r="T13">
-        <v>0.142967751523007</v>
+        <v>0.08879950342818978</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H14">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I14">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J14">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N14">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O14">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P14">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q14">
-        <v>2.735120937464222</v>
+        <v>0.6392113104375555</v>
       </c>
       <c r="R14">
-        <v>24.616088437178</v>
+        <v>5.752901793937999</v>
       </c>
       <c r="S14">
-        <v>0.002934460945321958</v>
+        <v>0.0003122712338887727</v>
       </c>
       <c r="T14">
-        <v>0.002934460945321959</v>
+        <v>0.0003122712338887727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H15">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I15">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J15">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.527783</v>
       </c>
       <c r="O15">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P15">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q15">
-        <v>5.652156655206445</v>
+        <v>1.099335095789222</v>
       </c>
       <c r="R15">
-        <v>50.869409896858</v>
+        <v>9.894015862103</v>
       </c>
       <c r="S15">
-        <v>0.006064094912352248</v>
+        <v>0.0005370535865273438</v>
       </c>
       <c r="T15">
-        <v>0.006064094912352249</v>
+        <v>0.0005370535865273438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H16">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I16">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J16">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N16">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O16">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P16">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q16">
-        <v>4.898591299454223</v>
+        <v>1.257154240143667</v>
       </c>
       <c r="R16">
-        <v>44.087321695088</v>
+        <v>11.314388161293</v>
       </c>
       <c r="S16">
-        <v>0.005255608502880101</v>
+        <v>0.0006141523144974383</v>
       </c>
       <c r="T16">
-        <v>0.005255608502880101</v>
+        <v>0.0006141523144974383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H17">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I17">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J17">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N17">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O17">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P17">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q17">
-        <v>2.133609737320445</v>
+        <v>0.2698274604741112</v>
       </c>
       <c r="R17">
-        <v>19.202487635884</v>
+        <v>2.428447144267</v>
       </c>
       <c r="S17">
-        <v>0.002289110642591974</v>
+        <v>0.0001318176832034577</v>
       </c>
       <c r="T17">
-        <v>0.002289110642591974</v>
+        <v>0.0001318176832034577</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H18">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I18">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J18">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N18">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O18">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P18">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q18">
-        <v>17.52122020052289</v>
+        <v>4.279457256028778</v>
       </c>
       <c r="R18">
-        <v>157.690981804706</v>
+        <v>38.51511530425901</v>
       </c>
       <c r="S18">
-        <v>0.0187981948763438</v>
+        <v>0.00209062539397121</v>
       </c>
       <c r="T18">
-        <v>0.0187981948763438</v>
+        <v>0.00209062539397121</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H19">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I19">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J19">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N19">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O19">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P19">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q19">
-        <v>5.901453634653111</v>
+        <v>0.7560301218251111</v>
       </c>
       <c r="R19">
-        <v>53.113082711878</v>
+        <v>6.804271096426</v>
       </c>
       <c r="S19">
-        <v>0.006331561056153264</v>
+        <v>0.0003693402402998778</v>
       </c>
       <c r="T19">
-        <v>0.006331561056153265</v>
+        <v>0.0003693402402998778</v>
       </c>
     </row>
   </sheetData>
